--- a/spcal/private/dcdc_structured.xlsx
+++ b/spcal/private/dcdc_structured.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="640" yWindow="1180" windowWidth="28160" windowHeight="15480" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16200" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="14">
   <si>
     <t>700 HK</t>
   </si>
@@ -424,10 +424,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H221"/>
+  <dimension ref="A1:H119"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="A120" sqref="A120:XFD221"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3445,2589 +3445,6 @@
         <v>75</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A120" t="s">
-        <v>0</v>
-      </c>
-      <c r="B120">
-        <v>90</v>
-      </c>
-      <c r="C120" t="s">
-        <v>1</v>
-      </c>
-      <c r="D120">
-        <v>105</v>
-      </c>
-      <c r="E120">
-        <v>3.32</v>
-      </c>
-      <c r="F120">
-        <v>3</v>
-      </c>
-      <c r="G120" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A121" t="s">
-        <v>0</v>
-      </c>
-      <c r="B121">
-        <v>90</v>
-      </c>
-      <c r="C121" t="s">
-        <v>1</v>
-      </c>
-      <c r="D121">
-        <v>105</v>
-      </c>
-      <c r="E121">
-        <v>10.62</v>
-      </c>
-      <c r="F121">
-        <v>6</v>
-      </c>
-      <c r="G121" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A122" t="s">
-        <v>0</v>
-      </c>
-      <c r="B122">
-        <v>90</v>
-      </c>
-      <c r="C122" t="s">
-        <v>1</v>
-      </c>
-      <c r="D122">
-        <v>105</v>
-      </c>
-      <c r="E122">
-        <v>14.35</v>
-      </c>
-      <c r="F122">
-        <v>9</v>
-      </c>
-      <c r="G122" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A123" t="s">
-        <v>0</v>
-      </c>
-      <c r="B123">
-        <v>90</v>
-      </c>
-      <c r="C123" t="s">
-        <v>1</v>
-      </c>
-      <c r="D123">
-        <v>105</v>
-      </c>
-      <c r="E123">
-        <v>16.079999999999998</v>
-      </c>
-      <c r="F123">
-        <v>12</v>
-      </c>
-      <c r="G123" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A124" t="s">
-        <v>0</v>
-      </c>
-      <c r="B124">
-        <v>90</v>
-      </c>
-      <c r="C124" t="s">
-        <v>1</v>
-      </c>
-      <c r="D124">
-        <v>100</v>
-      </c>
-      <c r="E124">
-        <v>2.9</v>
-      </c>
-      <c r="F124">
-        <v>3</v>
-      </c>
-      <c r="G124" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A125" t="s">
-        <v>0</v>
-      </c>
-      <c r="B125">
-        <v>90</v>
-      </c>
-      <c r="C125" t="s">
-        <v>1</v>
-      </c>
-      <c r="D125">
-        <v>100</v>
-      </c>
-      <c r="E125">
-        <v>10.73</v>
-      </c>
-      <c r="F125">
-        <v>6</v>
-      </c>
-      <c r="G125" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A126" t="s">
-        <v>0</v>
-      </c>
-      <c r="B126">
-        <v>90</v>
-      </c>
-      <c r="C126" t="s">
-        <v>1</v>
-      </c>
-      <c r="D126">
-        <v>100</v>
-      </c>
-      <c r="E126">
-        <v>14.51</v>
-      </c>
-      <c r="F126">
-        <v>9</v>
-      </c>
-      <c r="G126" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A127" t="s">
-        <v>0</v>
-      </c>
-      <c r="B127">
-        <v>90</v>
-      </c>
-      <c r="C127" t="s">
-        <v>1</v>
-      </c>
-      <c r="D127">
-        <v>100</v>
-      </c>
-      <c r="E127">
-        <v>16.21</v>
-      </c>
-      <c r="F127">
-        <v>12</v>
-      </c>
-      <c r="G127" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A128" t="s">
-        <v>0</v>
-      </c>
-      <c r="B128">
-        <v>90</v>
-      </c>
-      <c r="C128" t="s">
-        <v>1</v>
-      </c>
-      <c r="D128">
-        <v>95</v>
-      </c>
-      <c r="E128">
-        <v>4.08</v>
-      </c>
-      <c r="F128">
-        <v>6</v>
-      </c>
-      <c r="G128" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A129" t="s">
-        <v>0</v>
-      </c>
-      <c r="B129">
-        <v>90</v>
-      </c>
-      <c r="C129" t="s">
-        <v>1</v>
-      </c>
-      <c r="D129">
-        <v>95</v>
-      </c>
-      <c r="E129">
-        <v>6.61</v>
-      </c>
-      <c r="F129">
-        <v>9</v>
-      </c>
-      <c r="G129" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A130" t="s">
-        <v>0</v>
-      </c>
-      <c r="B130">
-        <v>90</v>
-      </c>
-      <c r="C130" t="s">
-        <v>1</v>
-      </c>
-      <c r="D130">
-        <v>95</v>
-      </c>
-      <c r="E130">
-        <v>7.78</v>
-      </c>
-      <c r="F130">
-        <v>12</v>
-      </c>
-      <c r="G130" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A131" t="s">
-        <v>0</v>
-      </c>
-      <c r="B131">
-        <v>85</v>
-      </c>
-      <c r="C131" t="s">
-        <v>1</v>
-      </c>
-      <c r="D131">
-        <v>105</v>
-      </c>
-      <c r="E131">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="F131">
-        <v>6</v>
-      </c>
-      <c r="G131" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A132" t="s">
-        <v>0</v>
-      </c>
-      <c r="B132">
-        <v>85</v>
-      </c>
-      <c r="C132" t="s">
-        <v>1</v>
-      </c>
-      <c r="D132">
-        <v>105</v>
-      </c>
-      <c r="E132">
-        <v>7.85</v>
-      </c>
-      <c r="F132">
-        <v>9</v>
-      </c>
-      <c r="G132" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A133" t="s">
-        <v>0</v>
-      </c>
-      <c r="B133">
-        <v>85</v>
-      </c>
-      <c r="C133" t="s">
-        <v>1</v>
-      </c>
-      <c r="D133">
-        <v>105</v>
-      </c>
-      <c r="E133">
-        <v>9.56</v>
-      </c>
-      <c r="F133">
-        <v>12</v>
-      </c>
-      <c r="G133" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A134" t="s">
-        <v>0</v>
-      </c>
-      <c r="B134">
-        <v>85</v>
-      </c>
-      <c r="C134" t="s">
-        <v>1</v>
-      </c>
-      <c r="D134">
-        <v>100</v>
-      </c>
-      <c r="E134">
-        <v>3.83</v>
-      </c>
-      <c r="F134">
-        <v>6</v>
-      </c>
-      <c r="G134" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A135" t="s">
-        <v>0</v>
-      </c>
-      <c r="B135">
-        <v>85</v>
-      </c>
-      <c r="C135" t="s">
-        <v>1</v>
-      </c>
-      <c r="D135">
-        <v>100</v>
-      </c>
-      <c r="E135">
-        <v>7.39</v>
-      </c>
-      <c r="F135">
-        <v>9</v>
-      </c>
-      <c r="G135" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A136" t="s">
-        <v>0</v>
-      </c>
-      <c r="B136">
-        <v>85</v>
-      </c>
-      <c r="C136" t="s">
-        <v>1</v>
-      </c>
-      <c r="D136">
-        <v>100</v>
-      </c>
-      <c r="E136">
-        <v>9.1199999999999992</v>
-      </c>
-      <c r="F136">
-        <v>12</v>
-      </c>
-      <c r="G136" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A137" t="s">
-        <v>0</v>
-      </c>
-      <c r="B137">
-        <v>85</v>
-      </c>
-      <c r="C137" t="s">
-        <v>1</v>
-      </c>
-      <c r="D137">
-        <v>95</v>
-      </c>
-      <c r="E137">
-        <v>2.13</v>
-      </c>
-      <c r="F137">
-        <v>9</v>
-      </c>
-      <c r="G137" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A138" t="s">
-        <v>0</v>
-      </c>
-      <c r="B138">
-        <v>85</v>
-      </c>
-      <c r="C138" t="s">
-        <v>1</v>
-      </c>
-      <c r="D138">
-        <v>95</v>
-      </c>
-      <c r="E138">
-        <v>3.51</v>
-      </c>
-      <c r="F138">
-        <v>12</v>
-      </c>
-      <c r="G138" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A139" t="s">
-        <v>0</v>
-      </c>
-      <c r="B139">
-        <v>80</v>
-      </c>
-      <c r="C139" t="s">
-        <v>1</v>
-      </c>
-      <c r="D139">
-        <v>105</v>
-      </c>
-      <c r="E139">
-        <v>3.93</v>
-      </c>
-      <c r="F139">
-        <v>9</v>
-      </c>
-      <c r="G139" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A140" t="s">
-        <v>0</v>
-      </c>
-      <c r="B140">
-        <v>80</v>
-      </c>
-      <c r="C140" t="s">
-        <v>1</v>
-      </c>
-      <c r="D140">
-        <v>105</v>
-      </c>
-      <c r="E140">
-        <v>5.58</v>
-      </c>
-      <c r="F140">
-        <v>12</v>
-      </c>
-      <c r="G140" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A141" t="s">
-        <v>0</v>
-      </c>
-      <c r="B141">
-        <v>80</v>
-      </c>
-      <c r="C141" t="s">
-        <v>1</v>
-      </c>
-      <c r="D141">
-        <v>100</v>
-      </c>
-      <c r="E141">
-        <v>3.19</v>
-      </c>
-      <c r="F141">
-        <v>9</v>
-      </c>
-      <c r="G141" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A142" t="s">
-        <v>0</v>
-      </c>
-      <c r="B142">
-        <v>80</v>
-      </c>
-      <c r="C142" t="s">
-        <v>1</v>
-      </c>
-      <c r="D142">
-        <v>100</v>
-      </c>
-      <c r="E142">
-        <v>4.92</v>
-      </c>
-      <c r="F142">
-        <v>12</v>
-      </c>
-      <c r="G142" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A143" t="s">
-        <v>0</v>
-      </c>
-      <c r="B143">
-        <v>90</v>
-      </c>
-      <c r="C143" t="s">
-        <v>1</v>
-      </c>
-      <c r="D143">
-        <v>105</v>
-      </c>
-      <c r="E143">
-        <v>4.4400000000000004</v>
-      </c>
-      <c r="F143">
-        <v>6</v>
-      </c>
-      <c r="G143" t="s">
-        <v>3</v>
-      </c>
-      <c r="H143">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A144" t="s">
-        <v>0</v>
-      </c>
-      <c r="B144">
-        <v>90</v>
-      </c>
-      <c r="C144" t="s">
-        <v>1</v>
-      </c>
-      <c r="D144">
-        <v>105</v>
-      </c>
-      <c r="E144">
-        <v>9.7200000000000006</v>
-      </c>
-      <c r="F144">
-        <v>9</v>
-      </c>
-      <c r="G144" t="s">
-        <v>3</v>
-      </c>
-      <c r="H144">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A145" t="s">
-        <v>0</v>
-      </c>
-      <c r="B145">
-        <v>90</v>
-      </c>
-      <c r="C145" t="s">
-        <v>1</v>
-      </c>
-      <c r="D145">
-        <v>105</v>
-      </c>
-      <c r="E145">
-        <v>12.6</v>
-      </c>
-      <c r="F145">
-        <v>12</v>
-      </c>
-      <c r="G145" t="s">
-        <v>3</v>
-      </c>
-      <c r="H145">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A146" t="s">
-        <v>0</v>
-      </c>
-      <c r="B146">
-        <v>90</v>
-      </c>
-      <c r="C146" t="s">
-        <v>1</v>
-      </c>
-      <c r="D146">
-        <v>100</v>
-      </c>
-      <c r="E146">
-        <v>4.2</v>
-      </c>
-      <c r="F146">
-        <v>6</v>
-      </c>
-      <c r="G146" t="s">
-        <v>3</v>
-      </c>
-      <c r="H146">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A147" t="s">
-        <v>0</v>
-      </c>
-      <c r="B147">
-        <v>90</v>
-      </c>
-      <c r="C147" t="s">
-        <v>1</v>
-      </c>
-      <c r="D147">
-        <v>100</v>
-      </c>
-      <c r="E147">
-        <v>9.91</v>
-      </c>
-      <c r="F147">
-        <v>9</v>
-      </c>
-      <c r="G147" t="s">
-        <v>3</v>
-      </c>
-      <c r="H147">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A148" t="s">
-        <v>0</v>
-      </c>
-      <c r="B148">
-        <v>90</v>
-      </c>
-      <c r="C148" t="s">
-        <v>1</v>
-      </c>
-      <c r="D148">
-        <v>100</v>
-      </c>
-      <c r="E148">
-        <v>12.87</v>
-      </c>
-      <c r="F148">
-        <v>12</v>
-      </c>
-      <c r="G148" t="s">
-        <v>3</v>
-      </c>
-      <c r="H148">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A149" t="s">
-        <v>0</v>
-      </c>
-      <c r="B149">
-        <v>90</v>
-      </c>
-      <c r="C149" t="s">
-        <v>1</v>
-      </c>
-      <c r="D149">
-        <v>95</v>
-      </c>
-      <c r="E149">
-        <v>3.69</v>
-      </c>
-      <c r="F149">
-        <v>9</v>
-      </c>
-      <c r="G149" t="s">
-        <v>3</v>
-      </c>
-      <c r="H149">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A150" t="s">
-        <v>0</v>
-      </c>
-      <c r="B150">
-        <v>90</v>
-      </c>
-      <c r="C150" t="s">
-        <v>1</v>
-      </c>
-      <c r="D150">
-        <v>95</v>
-      </c>
-      <c r="E150">
-        <v>5.75</v>
-      </c>
-      <c r="F150">
-        <v>12</v>
-      </c>
-      <c r="G150" t="s">
-        <v>3</v>
-      </c>
-      <c r="H150">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A151" t="s">
-        <v>0</v>
-      </c>
-      <c r="B151">
-        <v>85</v>
-      </c>
-      <c r="C151" t="s">
-        <v>1</v>
-      </c>
-      <c r="D151">
-        <v>105</v>
-      </c>
-      <c r="E151">
-        <v>2.34</v>
-      </c>
-      <c r="F151">
-        <v>6</v>
-      </c>
-      <c r="G151" t="s">
-        <v>3</v>
-      </c>
-      <c r="H151">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A152" t="s">
-        <v>0</v>
-      </c>
-      <c r="B152">
-        <v>85</v>
-      </c>
-      <c r="C152" t="s">
-        <v>1</v>
-      </c>
-      <c r="D152">
-        <v>105</v>
-      </c>
-      <c r="E152">
-        <v>6.26</v>
-      </c>
-      <c r="F152">
-        <v>9</v>
-      </c>
-      <c r="G152" t="s">
-        <v>3</v>
-      </c>
-      <c r="H152">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A153" t="s">
-        <v>0</v>
-      </c>
-      <c r="B153">
-        <v>85</v>
-      </c>
-      <c r="C153" t="s">
-        <v>1</v>
-      </c>
-      <c r="D153">
-        <v>105</v>
-      </c>
-      <c r="E153">
-        <v>8.3800000000000008</v>
-      </c>
-      <c r="F153">
-        <v>12</v>
-      </c>
-      <c r="G153" t="s">
-        <v>3</v>
-      </c>
-      <c r="H153">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A154" t="s">
-        <v>0</v>
-      </c>
-      <c r="B154">
-        <v>85</v>
-      </c>
-      <c r="C154" t="s">
-        <v>1</v>
-      </c>
-      <c r="D154">
-        <v>100</v>
-      </c>
-      <c r="E154">
-        <v>1.75</v>
-      </c>
-      <c r="F154">
-        <v>6</v>
-      </c>
-      <c r="G154" t="s">
-        <v>3</v>
-      </c>
-      <c r="H154">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A155" t="s">
-        <v>0</v>
-      </c>
-      <c r="B155">
-        <v>85</v>
-      </c>
-      <c r="C155" t="s">
-        <v>1</v>
-      </c>
-      <c r="D155">
-        <v>100</v>
-      </c>
-      <c r="E155">
-        <v>5.83</v>
-      </c>
-      <c r="F155">
-        <v>9</v>
-      </c>
-      <c r="G155" t="s">
-        <v>3</v>
-      </c>
-      <c r="H155">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A156" t="s">
-        <v>0</v>
-      </c>
-      <c r="B156">
-        <v>85</v>
-      </c>
-      <c r="C156" t="s">
-        <v>1</v>
-      </c>
-      <c r="D156">
-        <v>100</v>
-      </c>
-      <c r="E156">
-        <v>8.02</v>
-      </c>
-      <c r="F156">
-        <v>12</v>
-      </c>
-      <c r="G156" t="s">
-        <v>3</v>
-      </c>
-      <c r="H156">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A157" t="s">
-        <v>0</v>
-      </c>
-      <c r="B157">
-        <v>85</v>
-      </c>
-      <c r="C157" t="s">
-        <v>1</v>
-      </c>
-      <c r="D157">
-        <v>95</v>
-      </c>
-      <c r="E157">
-        <v>1.06</v>
-      </c>
-      <c r="F157">
-        <v>9</v>
-      </c>
-      <c r="G157" t="s">
-        <v>3</v>
-      </c>
-      <c r="H157">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A158" t="s">
-        <v>0</v>
-      </c>
-      <c r="B158">
-        <v>85</v>
-      </c>
-      <c r="C158" t="s">
-        <v>1</v>
-      </c>
-      <c r="D158">
-        <v>95</v>
-      </c>
-      <c r="E158">
-        <v>2.76</v>
-      </c>
-      <c r="F158">
-        <v>12</v>
-      </c>
-      <c r="G158" t="s">
-        <v>3</v>
-      </c>
-      <c r="H158">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A159" t="s">
-        <v>0</v>
-      </c>
-      <c r="B159">
-        <v>80</v>
-      </c>
-      <c r="C159" t="s">
-        <v>1</v>
-      </c>
-      <c r="D159">
-        <v>105</v>
-      </c>
-      <c r="E159">
-        <v>3.7</v>
-      </c>
-      <c r="F159">
-        <v>9</v>
-      </c>
-      <c r="G159" t="s">
-        <v>3</v>
-      </c>
-      <c r="H159">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A160" t="s">
-        <v>0</v>
-      </c>
-      <c r="B160">
-        <v>80</v>
-      </c>
-      <c r="C160" t="s">
-        <v>1</v>
-      </c>
-      <c r="D160">
-        <v>105</v>
-      </c>
-      <c r="E160">
-        <v>5.41</v>
-      </c>
-      <c r="F160">
-        <v>12</v>
-      </c>
-      <c r="G160" t="s">
-        <v>3</v>
-      </c>
-      <c r="H160">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A161" t="s">
-        <v>0</v>
-      </c>
-      <c r="B161">
-        <v>80</v>
-      </c>
-      <c r="C161" t="s">
-        <v>1</v>
-      </c>
-      <c r="D161">
-        <v>100</v>
-      </c>
-      <c r="E161">
-        <v>2.95</v>
-      </c>
-      <c r="F161">
-        <v>9</v>
-      </c>
-      <c r="G161" t="s">
-        <v>3</v>
-      </c>
-      <c r="H161">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A162" t="s">
-        <v>0</v>
-      </c>
-      <c r="B162">
-        <v>80</v>
-      </c>
-      <c r="C162" t="s">
-        <v>1</v>
-      </c>
-      <c r="D162">
-        <v>100</v>
-      </c>
-      <c r="E162">
-        <v>4.74</v>
-      </c>
-      <c r="F162">
-        <v>12</v>
-      </c>
-      <c r="G162" t="s">
-        <v>3</v>
-      </c>
-      <c r="H162">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A163" t="s">
-        <v>0</v>
-      </c>
-      <c r="B163">
-        <v>90</v>
-      </c>
-      <c r="C163" t="s">
-        <v>1</v>
-      </c>
-      <c r="D163">
-        <v>105</v>
-      </c>
-      <c r="E163">
-        <v>2.4700000000000002</v>
-      </c>
-      <c r="F163">
-        <v>6</v>
-      </c>
-      <c r="G163" t="s">
-        <v>3</v>
-      </c>
-      <c r="H163">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A164" t="s">
-        <v>0</v>
-      </c>
-      <c r="B164">
-        <v>90</v>
-      </c>
-      <c r="C164" t="s">
-        <v>1</v>
-      </c>
-      <c r="D164">
-        <v>105</v>
-      </c>
-      <c r="E164">
-        <v>7.82</v>
-      </c>
-      <c r="F164">
-        <v>9</v>
-      </c>
-      <c r="G164" t="s">
-        <v>3</v>
-      </c>
-      <c r="H164">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A165" t="s">
-        <v>0</v>
-      </c>
-      <c r="B165">
-        <v>90</v>
-      </c>
-      <c r="C165" t="s">
-        <v>1</v>
-      </c>
-      <c r="D165">
-        <v>105</v>
-      </c>
-      <c r="E165">
-        <v>10.92</v>
-      </c>
-      <c r="F165">
-        <v>12</v>
-      </c>
-      <c r="G165" t="s">
-        <v>3</v>
-      </c>
-      <c r="H165">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A166" t="s">
-        <v>0</v>
-      </c>
-      <c r="B166">
-        <v>90</v>
-      </c>
-      <c r="C166" t="s">
-        <v>1</v>
-      </c>
-      <c r="D166">
-        <v>100</v>
-      </c>
-      <c r="E166">
-        <v>1.88</v>
-      </c>
-      <c r="F166">
-        <v>6</v>
-      </c>
-      <c r="G166" t="s">
-        <v>3</v>
-      </c>
-      <c r="H166">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A167" t="s">
-        <v>0</v>
-      </c>
-      <c r="B167">
-        <v>90</v>
-      </c>
-      <c r="C167" t="s">
-        <v>1</v>
-      </c>
-      <c r="D167">
-        <v>100</v>
-      </c>
-      <c r="E167">
-        <v>7.81</v>
-      </c>
-      <c r="F167">
-        <v>9</v>
-      </c>
-      <c r="G167" t="s">
-        <v>3</v>
-      </c>
-      <c r="H167">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A168" t="s">
-        <v>0</v>
-      </c>
-      <c r="B168">
-        <v>90</v>
-      </c>
-      <c r="C168" t="s">
-        <v>1</v>
-      </c>
-      <c r="D168">
-        <v>100</v>
-      </c>
-      <c r="E168">
-        <v>11.14</v>
-      </c>
-      <c r="F168">
-        <v>12</v>
-      </c>
-      <c r="G168" t="s">
-        <v>3</v>
-      </c>
-      <c r="H168">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A169" t="s">
-        <v>0</v>
-      </c>
-      <c r="B169">
-        <v>90</v>
-      </c>
-      <c r="C169" t="s">
-        <v>1</v>
-      </c>
-      <c r="D169">
-        <v>95</v>
-      </c>
-      <c r="E169">
-        <v>2.06</v>
-      </c>
-      <c r="F169">
-        <v>9</v>
-      </c>
-      <c r="G169" t="s">
-        <v>3</v>
-      </c>
-      <c r="H169">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A170" t="s">
-        <v>0</v>
-      </c>
-      <c r="B170">
-        <v>90</v>
-      </c>
-      <c r="C170" t="s">
-        <v>1</v>
-      </c>
-      <c r="D170">
-        <v>95</v>
-      </c>
-      <c r="E170">
-        <v>4.55</v>
-      </c>
-      <c r="F170">
-        <v>12</v>
-      </c>
-      <c r="G170" t="s">
-        <v>3</v>
-      </c>
-      <c r="H170">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A171" t="s">
-        <v>0</v>
-      </c>
-      <c r="B171">
-        <v>85</v>
-      </c>
-      <c r="C171" t="s">
-        <v>1</v>
-      </c>
-      <c r="D171">
-        <v>105</v>
-      </c>
-      <c r="E171">
-        <v>1.1599999999999999</v>
-      </c>
-      <c r="F171">
-        <v>6</v>
-      </c>
-      <c r="G171" t="s">
-        <v>3</v>
-      </c>
-      <c r="H171">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A172" t="s">
-        <v>0</v>
-      </c>
-      <c r="B172">
-        <v>85</v>
-      </c>
-      <c r="C172" t="s">
-        <v>1</v>
-      </c>
-      <c r="D172">
-        <v>105</v>
-      </c>
-      <c r="E172">
-        <v>5.12</v>
-      </c>
-      <c r="F172">
-        <v>9</v>
-      </c>
-      <c r="G172" t="s">
-        <v>3</v>
-      </c>
-      <c r="H172">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A173" t="s">
-        <v>0</v>
-      </c>
-      <c r="B173">
-        <v>85</v>
-      </c>
-      <c r="C173" t="s">
-        <v>1</v>
-      </c>
-      <c r="D173">
-        <v>105</v>
-      </c>
-      <c r="E173">
-        <v>7.4</v>
-      </c>
-      <c r="F173">
-        <v>12</v>
-      </c>
-      <c r="G173" t="s">
-        <v>3</v>
-      </c>
-      <c r="H173">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A174" t="s">
-        <v>0</v>
-      </c>
-      <c r="B174">
-        <v>85</v>
-      </c>
-      <c r="C174" t="s">
-        <v>1</v>
-      </c>
-      <c r="D174">
-        <v>100</v>
-      </c>
-      <c r="E174">
-        <v>4.63</v>
-      </c>
-      <c r="F174">
-        <v>9</v>
-      </c>
-      <c r="G174" t="s">
-        <v>3</v>
-      </c>
-      <c r="H174">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A175" t="s">
-        <v>0</v>
-      </c>
-      <c r="B175">
-        <v>85</v>
-      </c>
-      <c r="C175" t="s">
-        <v>1</v>
-      </c>
-      <c r="D175">
-        <v>100</v>
-      </c>
-      <c r="E175">
-        <v>7.04</v>
-      </c>
-      <c r="F175">
-        <v>12</v>
-      </c>
-      <c r="G175" t="s">
-        <v>3</v>
-      </c>
-      <c r="H175">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A176" t="s">
-        <v>0</v>
-      </c>
-      <c r="B176">
-        <v>85</v>
-      </c>
-      <c r="C176" t="s">
-        <v>1</v>
-      </c>
-      <c r="D176">
-        <v>95</v>
-      </c>
-      <c r="E176">
-        <v>2.08</v>
-      </c>
-      <c r="F176">
-        <v>12</v>
-      </c>
-      <c r="G176" t="s">
-        <v>3</v>
-      </c>
-      <c r="H176">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A177" t="s">
-        <v>0</v>
-      </c>
-      <c r="B177">
-        <v>80</v>
-      </c>
-      <c r="C177" t="s">
-        <v>1</v>
-      </c>
-      <c r="D177">
-        <v>105</v>
-      </c>
-      <c r="E177">
-        <v>3.18</v>
-      </c>
-      <c r="F177">
-        <v>9</v>
-      </c>
-      <c r="G177" t="s">
-        <v>3</v>
-      </c>
-      <c r="H177">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A178" t="s">
-        <v>0</v>
-      </c>
-      <c r="B178">
-        <v>80</v>
-      </c>
-      <c r="C178" t="s">
-        <v>1</v>
-      </c>
-      <c r="D178">
-        <v>105</v>
-      </c>
-      <c r="E178">
-        <v>4.97</v>
-      </c>
-      <c r="F178">
-        <v>12</v>
-      </c>
-      <c r="G178" t="s">
-        <v>3</v>
-      </c>
-      <c r="H178">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A179" t="s">
-        <v>0</v>
-      </c>
-      <c r="B179">
-        <v>80</v>
-      </c>
-      <c r="C179" t="s">
-        <v>1</v>
-      </c>
-      <c r="D179">
-        <v>100</v>
-      </c>
-      <c r="E179">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F179">
-        <v>9</v>
-      </c>
-      <c r="G179" t="s">
-        <v>3</v>
-      </c>
-      <c r="H179">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A180" t="s">
-        <v>0</v>
-      </c>
-      <c r="B180">
-        <v>80</v>
-      </c>
-      <c r="C180" t="s">
-        <v>1</v>
-      </c>
-      <c r="D180">
-        <v>100</v>
-      </c>
-      <c r="E180">
-        <v>4.3600000000000003</v>
-      </c>
-      <c r="F180">
-        <v>12</v>
-      </c>
-      <c r="G180" t="s">
-        <v>3</v>
-      </c>
-      <c r="H180">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A181" t="s">
-        <v>0</v>
-      </c>
-      <c r="B181">
-        <v>90</v>
-      </c>
-      <c r="C181" t="s">
-        <v>1</v>
-      </c>
-      <c r="D181">
-        <v>105</v>
-      </c>
-      <c r="E181">
-        <v>6.7</v>
-      </c>
-      <c r="F181">
-        <v>6</v>
-      </c>
-      <c r="G181" t="s">
-        <v>4</v>
-      </c>
-      <c r="H181">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A182" t="s">
-        <v>0</v>
-      </c>
-      <c r="B182">
-        <v>90</v>
-      </c>
-      <c r="C182" t="s">
-        <v>1</v>
-      </c>
-      <c r="D182">
-        <v>105</v>
-      </c>
-      <c r="E182">
-        <v>12.25</v>
-      </c>
-      <c r="F182">
-        <v>9</v>
-      </c>
-      <c r="G182" t="s">
-        <v>4</v>
-      </c>
-      <c r="H182">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A183" t="s">
-        <v>0</v>
-      </c>
-      <c r="B183">
-        <v>90</v>
-      </c>
-      <c r="C183" t="s">
-        <v>1</v>
-      </c>
-      <c r="D183">
-        <v>105</v>
-      </c>
-      <c r="E183">
-        <v>14.99</v>
-      </c>
-      <c r="F183">
-        <v>12</v>
-      </c>
-      <c r="G183" t="s">
-        <v>4</v>
-      </c>
-      <c r="H183">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A184" t="s">
-        <v>0</v>
-      </c>
-      <c r="B184">
-        <v>90</v>
-      </c>
-      <c r="C184" t="s">
-        <v>1</v>
-      </c>
-      <c r="D184">
-        <v>100</v>
-      </c>
-      <c r="E184">
-        <v>7.05</v>
-      </c>
-      <c r="F184">
-        <v>6</v>
-      </c>
-      <c r="G184" t="s">
-        <v>4</v>
-      </c>
-      <c r="H184">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A185" t="s">
-        <v>0</v>
-      </c>
-      <c r="B185">
-        <v>90</v>
-      </c>
-      <c r="C185" t="s">
-        <v>1</v>
-      </c>
-      <c r="D185">
-        <v>100</v>
-      </c>
-      <c r="E185">
-        <v>12.89</v>
-      </c>
-      <c r="F185">
-        <v>9</v>
-      </c>
-      <c r="G185" t="s">
-        <v>4</v>
-      </c>
-      <c r="H185">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A186" t="s">
-        <v>0</v>
-      </c>
-      <c r="B186">
-        <v>90</v>
-      </c>
-      <c r="C186" t="s">
-        <v>1</v>
-      </c>
-      <c r="D186">
-        <v>100</v>
-      </c>
-      <c r="E186">
-        <v>15.52</v>
-      </c>
-      <c r="F186">
-        <v>12</v>
-      </c>
-      <c r="G186" t="s">
-        <v>4</v>
-      </c>
-      <c r="H186">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A187" t="s">
-        <v>0</v>
-      </c>
-      <c r="B187">
-        <v>90</v>
-      </c>
-      <c r="C187" t="s">
-        <v>1</v>
-      </c>
-      <c r="D187">
-        <v>95</v>
-      </c>
-      <c r="E187">
-        <v>2.09</v>
-      </c>
-      <c r="F187">
-        <v>6</v>
-      </c>
-      <c r="G187" t="s">
-        <v>4</v>
-      </c>
-      <c r="H187">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A188" t="s">
-        <v>0</v>
-      </c>
-      <c r="B188">
-        <v>90</v>
-      </c>
-      <c r="C188" t="s">
-        <v>1</v>
-      </c>
-      <c r="D188">
-        <v>95</v>
-      </c>
-      <c r="E188">
-        <v>6.04</v>
-      </c>
-      <c r="F188">
-        <v>9</v>
-      </c>
-      <c r="G188" t="s">
-        <v>4</v>
-      </c>
-      <c r="H188">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A189" t="s">
-        <v>0</v>
-      </c>
-      <c r="B189">
-        <v>90</v>
-      </c>
-      <c r="C189" t="s">
-        <v>1</v>
-      </c>
-      <c r="D189">
-        <v>95</v>
-      </c>
-      <c r="E189">
-        <v>7.75</v>
-      </c>
-      <c r="F189">
-        <v>12</v>
-      </c>
-      <c r="G189" t="s">
-        <v>4</v>
-      </c>
-      <c r="H189">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A190" t="s">
-        <v>0</v>
-      </c>
-      <c r="B190">
-        <v>85</v>
-      </c>
-      <c r="C190" t="s">
-        <v>1</v>
-      </c>
-      <c r="D190">
-        <v>105</v>
-      </c>
-      <c r="E190">
-        <v>3.32</v>
-      </c>
-      <c r="F190">
-        <v>6</v>
-      </c>
-      <c r="G190" t="s">
-        <v>4</v>
-      </c>
-      <c r="H190">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A191" t="s">
-        <v>0</v>
-      </c>
-      <c r="B191">
-        <v>85</v>
-      </c>
-      <c r="C191" t="s">
-        <v>1</v>
-      </c>
-      <c r="D191">
-        <v>105</v>
-      </c>
-      <c r="E191">
-        <v>7.24</v>
-      </c>
-      <c r="F191">
-        <v>9</v>
-      </c>
-      <c r="G191" t="s">
-        <v>4</v>
-      </c>
-      <c r="H191">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A192" t="s">
-        <v>0</v>
-      </c>
-      <c r="B192">
-        <v>85</v>
-      </c>
-      <c r="C192" t="s">
-        <v>1</v>
-      </c>
-      <c r="D192">
-        <v>105</v>
-      </c>
-      <c r="E192">
-        <v>9.26</v>
-      </c>
-      <c r="F192">
-        <v>12</v>
-      </c>
-      <c r="G192" t="s">
-        <v>4</v>
-      </c>
-      <c r="H192">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A193" t="s">
-        <v>0</v>
-      </c>
-      <c r="B193">
-        <v>85</v>
-      </c>
-      <c r="C193" t="s">
-        <v>1</v>
-      </c>
-      <c r="D193">
-        <v>100</v>
-      </c>
-      <c r="E193">
-        <v>2.83</v>
-      </c>
-      <c r="F193">
-        <v>6</v>
-      </c>
-      <c r="G193" t="s">
-        <v>4</v>
-      </c>
-      <c r="H193">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A194" t="s">
-        <v>0</v>
-      </c>
-      <c r="B194">
-        <v>85</v>
-      </c>
-      <c r="C194" t="s">
-        <v>1</v>
-      </c>
-      <c r="D194">
-        <v>100</v>
-      </c>
-      <c r="E194">
-        <v>6.97</v>
-      </c>
-      <c r="F194">
-        <v>9</v>
-      </c>
-      <c r="G194" t="s">
-        <v>4</v>
-      </c>
-      <c r="H194">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A195" t="s">
-        <v>0</v>
-      </c>
-      <c r="B195">
-        <v>85</v>
-      </c>
-      <c r="C195" t="s">
-        <v>1</v>
-      </c>
-      <c r="D195">
-        <v>100</v>
-      </c>
-      <c r="E195">
-        <v>8.9700000000000006</v>
-      </c>
-      <c r="F195">
-        <v>12</v>
-      </c>
-      <c r="G195" t="s">
-        <v>4</v>
-      </c>
-      <c r="H195">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A196" t="s">
-        <v>0</v>
-      </c>
-      <c r="B196">
-        <v>85</v>
-      </c>
-      <c r="C196" t="s">
-        <v>1</v>
-      </c>
-      <c r="D196">
-        <v>95</v>
-      </c>
-      <c r="E196">
-        <v>1.94</v>
-      </c>
-      <c r="F196">
-        <v>9</v>
-      </c>
-      <c r="G196" t="s">
-        <v>4</v>
-      </c>
-      <c r="H196">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A197" t="s">
-        <v>0</v>
-      </c>
-      <c r="B197">
-        <v>85</v>
-      </c>
-      <c r="C197" t="s">
-        <v>1</v>
-      </c>
-      <c r="D197">
-        <v>95</v>
-      </c>
-      <c r="E197">
-        <v>3.55</v>
-      </c>
-      <c r="F197">
-        <v>12</v>
-      </c>
-      <c r="G197" t="s">
-        <v>4</v>
-      </c>
-      <c r="H197">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A198" t="s">
-        <v>0</v>
-      </c>
-      <c r="B198">
-        <v>80</v>
-      </c>
-      <c r="C198" t="s">
-        <v>1</v>
-      </c>
-      <c r="D198">
-        <v>105</v>
-      </c>
-      <c r="E198">
-        <v>3.85</v>
-      </c>
-      <c r="F198">
-        <v>9</v>
-      </c>
-      <c r="G198" t="s">
-        <v>4</v>
-      </c>
-      <c r="H198">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A199" t="s">
-        <v>0</v>
-      </c>
-      <c r="B199">
-        <v>80</v>
-      </c>
-      <c r="C199" t="s">
-        <v>1</v>
-      </c>
-      <c r="D199">
-        <v>105</v>
-      </c>
-      <c r="E199">
-        <v>5.55</v>
-      </c>
-      <c r="F199">
-        <v>12</v>
-      </c>
-      <c r="G199" t="s">
-        <v>4</v>
-      </c>
-      <c r="H199">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A200" t="s">
-        <v>0</v>
-      </c>
-      <c r="B200">
-        <v>80</v>
-      </c>
-      <c r="C200" t="s">
-        <v>1</v>
-      </c>
-      <c r="D200">
-        <v>100</v>
-      </c>
-      <c r="E200">
-        <v>3.14</v>
-      </c>
-      <c r="F200">
-        <v>9</v>
-      </c>
-      <c r="G200" t="s">
-        <v>4</v>
-      </c>
-      <c r="H200">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A201" t="s">
-        <v>0</v>
-      </c>
-      <c r="B201">
-        <v>80</v>
-      </c>
-      <c r="C201" t="s">
-        <v>1</v>
-      </c>
-      <c r="D201">
-        <v>100</v>
-      </c>
-      <c r="E201">
-        <v>4.91</v>
-      </c>
-      <c r="F201">
-        <v>12</v>
-      </c>
-      <c r="G201" t="s">
-        <v>4</v>
-      </c>
-      <c r="H201">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A202" t="s">
-        <v>0</v>
-      </c>
-      <c r="B202">
-        <v>90</v>
-      </c>
-      <c r="C202" t="s">
-        <v>1</v>
-      </c>
-      <c r="D202">
-        <v>105</v>
-      </c>
-      <c r="E202">
-        <v>4.66</v>
-      </c>
-      <c r="F202">
-        <v>6</v>
-      </c>
-      <c r="G202" t="s">
-        <v>4</v>
-      </c>
-      <c r="H202">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A203" t="s">
-        <v>0</v>
-      </c>
-      <c r="B203">
-        <v>90</v>
-      </c>
-      <c r="C203" t="s">
-        <v>1</v>
-      </c>
-      <c r="D203">
-        <v>105</v>
-      </c>
-      <c r="E203">
-        <v>10.66</v>
-      </c>
-      <c r="F203">
-        <v>9</v>
-      </c>
-      <c r="G203" t="s">
-        <v>4</v>
-      </c>
-      <c r="H203">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A204" t="s">
-        <v>0</v>
-      </c>
-      <c r="B204">
-        <v>90</v>
-      </c>
-      <c r="C204" t="s">
-        <v>1</v>
-      </c>
-      <c r="D204">
-        <v>105</v>
-      </c>
-      <c r="E204">
-        <v>13.9</v>
-      </c>
-      <c r="F204">
-        <v>12</v>
-      </c>
-      <c r="G204" t="s">
-        <v>4</v>
-      </c>
-      <c r="H204">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A205" t="s">
-        <v>0</v>
-      </c>
-      <c r="B205">
-        <v>90</v>
-      </c>
-      <c r="C205" t="s">
-        <v>1</v>
-      </c>
-      <c r="D205">
-        <v>100</v>
-      </c>
-      <c r="E205">
-        <v>4.6900000000000004</v>
-      </c>
-      <c r="F205">
-        <v>6</v>
-      </c>
-      <c r="G205" t="s">
-        <v>4</v>
-      </c>
-      <c r="H205">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A206" t="s">
-        <v>0</v>
-      </c>
-      <c r="B206">
-        <v>90</v>
-      </c>
-      <c r="C206" t="s">
-        <v>1</v>
-      </c>
-      <c r="D206">
-        <v>100</v>
-      </c>
-      <c r="E206">
-        <v>11.32</v>
-      </c>
-      <c r="F206">
-        <v>9</v>
-      </c>
-      <c r="G206" t="s">
-        <v>4</v>
-      </c>
-      <c r="H206">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A207" t="s">
-        <v>0</v>
-      </c>
-      <c r="B207">
-        <v>90</v>
-      </c>
-      <c r="C207" t="s">
-        <v>1</v>
-      </c>
-      <c r="D207">
-        <v>100</v>
-      </c>
-      <c r="E207">
-        <v>14.61</v>
-      </c>
-      <c r="F207">
-        <v>12</v>
-      </c>
-      <c r="G207" t="s">
-        <v>4</v>
-      </c>
-      <c r="H207">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A208" t="s">
-        <v>0</v>
-      </c>
-      <c r="B208">
-        <v>90</v>
-      </c>
-      <c r="C208" t="s">
-        <v>1</v>
-      </c>
-      <c r="D208">
-        <v>95</v>
-      </c>
-      <c r="E208">
-        <v>5.15</v>
-      </c>
-      <c r="F208">
-        <v>9</v>
-      </c>
-      <c r="G208" t="s">
-        <v>4</v>
-      </c>
-      <c r="H208">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A209" t="s">
-        <v>0</v>
-      </c>
-      <c r="B209">
-        <v>90</v>
-      </c>
-      <c r="C209" t="s">
-        <v>1</v>
-      </c>
-      <c r="D209">
-        <v>95</v>
-      </c>
-      <c r="E209">
-        <v>7.35</v>
-      </c>
-      <c r="F209">
-        <v>12</v>
-      </c>
-      <c r="G209" t="s">
-        <v>4</v>
-      </c>
-      <c r="H209">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A210" t="s">
-        <v>0</v>
-      </c>
-      <c r="B210">
-        <v>85</v>
-      </c>
-      <c r="C210" t="s">
-        <v>1</v>
-      </c>
-      <c r="D210">
-        <v>105</v>
-      </c>
-      <c r="E210">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="F210">
-        <v>6</v>
-      </c>
-      <c r="G210" t="s">
-        <v>4</v>
-      </c>
-      <c r="H210">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A211" t="s">
-        <v>0</v>
-      </c>
-      <c r="B211">
-        <v>85</v>
-      </c>
-      <c r="C211" t="s">
-        <v>1</v>
-      </c>
-      <c r="D211">
-        <v>105</v>
-      </c>
-      <c r="E211">
-        <v>6.52</v>
-      </c>
-      <c r="F211">
-        <v>9</v>
-      </c>
-      <c r="G211" t="s">
-        <v>4</v>
-      </c>
-      <c r="H211">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A212" t="s">
-        <v>0</v>
-      </c>
-      <c r="B212">
-        <v>85</v>
-      </c>
-      <c r="C212" t="s">
-        <v>1</v>
-      </c>
-      <c r="D212">
-        <v>105</v>
-      </c>
-      <c r="E212">
-        <v>8.81</v>
-      </c>
-      <c r="F212">
-        <v>12</v>
-      </c>
-      <c r="G212" t="s">
-        <v>4</v>
-      </c>
-      <c r="H212">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A213" t="s">
-        <v>0</v>
-      </c>
-      <c r="B213">
-        <v>85</v>
-      </c>
-      <c r="C213" t="s">
-        <v>1</v>
-      </c>
-      <c r="D213">
-        <v>100</v>
-      </c>
-      <c r="E213">
-        <v>1.8</v>
-      </c>
-      <c r="F213">
-        <v>6</v>
-      </c>
-      <c r="G213" t="s">
-        <v>4</v>
-      </c>
-      <c r="H213">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A214" t="s">
-        <v>0</v>
-      </c>
-      <c r="B214">
-        <v>85</v>
-      </c>
-      <c r="C214" t="s">
-        <v>1</v>
-      </c>
-      <c r="D214">
-        <v>100</v>
-      </c>
-      <c r="E214">
-        <v>6.28</v>
-      </c>
-      <c r="F214">
-        <v>9</v>
-      </c>
-      <c r="G214" t="s">
-        <v>4</v>
-      </c>
-      <c r="H214">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A215" t="s">
-        <v>0</v>
-      </c>
-      <c r="B215">
-        <v>85</v>
-      </c>
-      <c r="C215" t="s">
-        <v>1</v>
-      </c>
-      <c r="D215">
-        <v>100</v>
-      </c>
-      <c r="E215">
-        <v>8.61</v>
-      </c>
-      <c r="F215">
-        <v>12</v>
-      </c>
-      <c r="G215" t="s">
-        <v>4</v>
-      </c>
-      <c r="H215">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A216" t="s">
-        <v>0</v>
-      </c>
-      <c r="B216">
-        <v>85</v>
-      </c>
-      <c r="C216" t="s">
-        <v>1</v>
-      </c>
-      <c r="D216">
-        <v>95</v>
-      </c>
-      <c r="E216">
-        <v>1.57</v>
-      </c>
-      <c r="F216">
-        <v>9</v>
-      </c>
-      <c r="G216" t="s">
-        <v>4</v>
-      </c>
-      <c r="H216">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A217" t="s">
-        <v>0</v>
-      </c>
-      <c r="B217">
-        <v>85</v>
-      </c>
-      <c r="C217" t="s">
-        <v>1</v>
-      </c>
-      <c r="D217">
-        <v>95</v>
-      </c>
-      <c r="E217">
-        <v>3.4</v>
-      </c>
-      <c r="F217">
-        <v>12</v>
-      </c>
-      <c r="G217" t="s">
-        <v>4</v>
-      </c>
-      <c r="H217">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A218" t="s">
-        <v>0</v>
-      </c>
-      <c r="B218">
-        <v>80</v>
-      </c>
-      <c r="C218" t="s">
-        <v>1</v>
-      </c>
-      <c r="D218">
-        <v>105</v>
-      </c>
-      <c r="E218">
-        <v>3.64</v>
-      </c>
-      <c r="F218">
-        <v>9</v>
-      </c>
-      <c r="G218" t="s">
-        <v>4</v>
-      </c>
-      <c r="H218">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A219" t="s">
-        <v>0</v>
-      </c>
-      <c r="B219">
-        <v>80</v>
-      </c>
-      <c r="C219" t="s">
-        <v>1</v>
-      </c>
-      <c r="D219">
-        <v>105</v>
-      </c>
-      <c r="E219">
-        <v>5.43</v>
-      </c>
-      <c r="F219">
-        <v>12</v>
-      </c>
-      <c r="G219" t="s">
-        <v>4</v>
-      </c>
-      <c r="H219">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A220" t="s">
-        <v>0</v>
-      </c>
-      <c r="B220">
-        <v>80</v>
-      </c>
-      <c r="C220" t="s">
-        <v>1</v>
-      </c>
-      <c r="D220">
-        <v>100</v>
-      </c>
-      <c r="E220">
-        <v>2.95</v>
-      </c>
-      <c r="F220">
-        <v>9</v>
-      </c>
-      <c r="G220" t="s">
-        <v>4</v>
-      </c>
-      <c r="H220">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A221" t="s">
-        <v>0</v>
-      </c>
-      <c r="B221">
-        <v>80</v>
-      </c>
-      <c r="C221" t="s">
-        <v>1</v>
-      </c>
-      <c r="D221">
-        <v>100</v>
-      </c>
-      <c r="E221">
-        <v>4.8499999999999996</v>
-      </c>
-      <c r="F221">
-        <v>12</v>
-      </c>
-      <c r="G221" t="s">
-        <v>4</v>
-      </c>
-      <c r="H221">
-        <v>75</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
